--- a/data/trans_orig/P22_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P22_R-Edad-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4837</v>
+        <v>5351</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002267285736050501</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01034714043934797</v>
+        <v>0.01144621158258034</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5316</v>
+        <v>5311</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001103376192689925</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005534011257004347</v>
+        <v>0.00552817374150734</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>23999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15944</v>
+        <v>15221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37193</v>
+        <v>35994</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04866564887744514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03233165113317147</v>
+        <v>0.03086491780763453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07542023038140142</v>
+        <v>0.07298921457049602</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -828,19 +828,19 @@
         <v>20136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13036</v>
+        <v>12593</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30418</v>
+        <v>30062</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04307267157237277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0278852811220284</v>
+        <v>0.02693680504689571</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06506661723173358</v>
+        <v>0.06430560239092624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -849,19 +849,19 @@
         <v>44135</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32000</v>
+        <v>32352</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57567</v>
+        <v>58467</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04594382255156627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03331174157299965</v>
+        <v>0.03367794674930884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05992675866614149</v>
+        <v>0.06086384165482163</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>16519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9254</v>
+        <v>10286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24876</v>
+        <v>25128</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03349766569158601</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01876610334582229</v>
+        <v>0.02085782431011483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05044340126242282</v>
+        <v>0.05095599738944612</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -899,19 +899,19 @@
         <v>25600</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17588</v>
+        <v>16151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37190</v>
+        <v>37384</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05476153098525942</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03762275105469653</v>
+        <v>0.03454878472037132</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07955310434045464</v>
+        <v>0.07996819081689445</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -920,19 +920,19 @@
         <v>42119</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30135</v>
+        <v>30544</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55944</v>
+        <v>57089</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04384574064153675</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03137052273000877</v>
+        <v>0.03179596541105169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05823651308964017</v>
+        <v>0.05942910477509798</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>452619</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>439566</v>
+        <v>437071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>463961</v>
+        <v>464022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9178366854309689</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.891367899592623</v>
+        <v>0.8863065402900889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9408368070250623</v>
+        <v>0.9409586197137865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>442</v>
@@ -970,19 +970,19 @@
         <v>420693</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>406093</v>
+        <v>406890</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>432417</v>
+        <v>432526</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8998985117063173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8686676592915918</v>
+        <v>0.8703732576713792</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9249772159714523</v>
+        <v>0.9252112467901603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>900</v>
@@ -991,19 +991,19 @@
         <v>873312</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>854613</v>
+        <v>854168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>890339</v>
+        <v>890991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9091070606142071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8896412690295311</v>
+        <v>0.8891782589079313</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9268316503459548</v>
+        <v>0.9275103735160225</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5201</v>
+        <v>7001</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00141457253293854</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007095416926152007</v>
+        <v>0.00955185135111365</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5200</v>
+        <v>5222</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0007632497764290819</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003827564367208096</v>
+        <v>0.003843918023714032</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>48046</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35199</v>
+        <v>34912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61807</v>
+        <v>62266</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06554853797286923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0480212498111806</v>
+        <v>0.0476294584442778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08432236691914945</v>
+        <v>0.08494940309529436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1179,19 +1179,19 @@
         <v>42978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31281</v>
+        <v>32261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56494</v>
+        <v>56963</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06871028468956283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05001031594704927</v>
+        <v>0.05157605265148747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09031941578457675</v>
+        <v>0.0910686484512416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -1200,19 +1200,19 @@
         <v>91024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74055</v>
+        <v>73642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>111969</v>
+        <v>109299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0670043258797811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05451311538883288</v>
+        <v>0.05420930772815604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08242235409256872</v>
+        <v>0.0804571751366938</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>26093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16999</v>
+        <v>16716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38192</v>
+        <v>37983</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0355989806110386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02319200735258577</v>
+        <v>0.02280569294551894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05210550714936145</v>
+        <v>0.0518198999191826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1250,19 +1250,19 @@
         <v>29546</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20135</v>
+        <v>20427</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42150</v>
+        <v>41253</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04723547295585317</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03219082482865697</v>
+        <v>0.03265760379721157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06738599722369029</v>
+        <v>0.06595234227244008</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -1271,19 +1271,19 @@
         <v>55639</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41978</v>
+        <v>44116</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73017</v>
+        <v>73176</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04095686229871812</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03090046915299097</v>
+        <v>0.03247496877932859</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05374936775301437</v>
+        <v>0.05386645930127259</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>657806</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>640837</v>
+        <v>639364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>674342</v>
+        <v>673635</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8974379088831537</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8742878299976479</v>
+        <v>0.8722777341127425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9199975132977551</v>
+        <v>0.9190329661637537</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>522</v>
@@ -1321,19 +1321,19 @@
         <v>552971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>534633</v>
+        <v>535897</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>567845</v>
+        <v>567439</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.884054242354584</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8547369829356619</v>
+        <v>0.8567585613215557</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9078344836763741</v>
+        <v>0.9071857721809022</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1151</v>
@@ -1342,19 +1342,19 @@
         <v>1210776</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1186696</v>
+        <v>1183365</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1232358</v>
+        <v>1231830</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8912755620450717</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8735494441432291</v>
+        <v>0.8710975064447074</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9071618168882206</v>
+        <v>0.9067733828405233</v>
       </c>
     </row>
     <row r="13">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9957</v>
+        <v>11678</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005167862687633344</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01559025171568583</v>
+        <v>0.01828522022495986</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11526</v>
+        <v>10184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002484580669647512</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008676437642827885</v>
+        <v>0.007666189667602435</v>
       </c>
     </row>
     <row r="15">
@@ -1509,19 +1509,19 @@
         <v>63377</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49233</v>
+        <v>48645</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>80193</v>
+        <v>80240</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09923328498380606</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07708679467514</v>
+        <v>0.0761663778781454</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1255623508593897</v>
+        <v>0.1256357683822359</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -1530,19 +1530,19 @@
         <v>39957</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28331</v>
+        <v>29050</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>53274</v>
+        <v>55555</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05793064247709177</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04107425160995169</v>
+        <v>0.04211717091137193</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07723698908227043</v>
+        <v>0.08054451719766589</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>102</v>
@@ -1551,19 +1551,19 @@
         <v>103334</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>84481</v>
+        <v>83980</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>125656</v>
+        <v>125207</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07778793230468573</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06359552017549246</v>
+        <v>0.06321852443364921</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09459076485453834</v>
+        <v>0.09425326891108206</v>
       </c>
     </row>
     <row r="16">
@@ -1580,19 +1580,19 @@
         <v>23477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15648</v>
+        <v>14513</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35015</v>
+        <v>35118</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03675980969899077</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02450167450102359</v>
+        <v>0.02272347490394123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05482563135602929</v>
+        <v>0.05498625303207746</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1601,19 +1601,19 @@
         <v>27057</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17089</v>
+        <v>17897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38659</v>
+        <v>39449</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03922727843193274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02477530003469652</v>
+        <v>0.02594706120094828</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05604883566773832</v>
+        <v>0.05719409565500114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1622,19 +1622,19 @@
         <v>50534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37244</v>
+        <v>37171</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65198</v>
+        <v>67524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03804098044234068</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02803664225224847</v>
+        <v>0.02798157139766218</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04908001771307417</v>
+        <v>0.05083047995704661</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>548513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>529263</v>
+        <v>528608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>565556</v>
+        <v>565664</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8588390426295698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8286974078169395</v>
+        <v>0.8276721558599288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8855235983354034</v>
+        <v>0.8856927900458144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>596</v>
@@ -1672,19 +1672,19 @@
         <v>622730</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>607067</v>
+        <v>606282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>638721</v>
+        <v>637548</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9028420790909755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8801337849009548</v>
+        <v>0.8789961321950592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9260266198774284</v>
+        <v>0.9243258657947381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1120</v>
@@ -1693,19 +1693,19 @@
         <v>1171243</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1144944</v>
+        <v>1145232</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1194463</v>
+        <v>1194169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.881686506583326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8618893912927144</v>
+        <v>0.8621057409430087</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.89916636761969</v>
+        <v>0.8989448062963215</v>
       </c>
     </row>
     <row r="18">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10536</v>
+        <v>9674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003401775081944058</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02034005524456317</v>
+        <v>0.018674620776051</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9427</v>
+        <v>8820</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001706737522115257</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009130370692377309</v>
+        <v>0.008542641880018433</v>
       </c>
     </row>
     <row r="20">
@@ -1860,19 +1860,19 @@
         <v>36446</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26078</v>
+        <v>25154</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49909</v>
+        <v>50005</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0703564043608617</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0503424396302965</v>
+        <v>0.04855909892407758</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09634722327013562</v>
+        <v>0.09653177365897141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -1881,19 +1881,19 @@
         <v>27570</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17914</v>
+        <v>18684</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39424</v>
+        <v>40895</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05359011039364479</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03482159894343895</v>
+        <v>0.0363184236417776</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07663227293714676</v>
+        <v>0.07949136237745454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -1902,19 +1902,19 @@
         <v>64016</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50499</v>
+        <v>49187</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83403</v>
+        <v>83360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06200209011933271</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04891029507838141</v>
+        <v>0.04763950416432369</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08077933811893967</v>
+        <v>0.08073783539359822</v>
       </c>
     </row>
     <row r="21">
@@ -1931,19 +1931,19 @@
         <v>35391</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24984</v>
+        <v>25064</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48987</v>
+        <v>49492</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0683204104314612</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0482312767934837</v>
+        <v>0.04838470481734911</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0945673191112071</v>
+        <v>0.09554204516014754</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1952,19 +1952,19 @@
         <v>22045</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14339</v>
+        <v>14111</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33564</v>
+        <v>32614</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04284982840778141</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02787111604602066</v>
+        <v>0.02742790534889311</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06524111914611909</v>
+        <v>0.06339379451469135</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -1973,19 +1973,19 @@
         <v>57435</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44176</v>
+        <v>43103</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72235</v>
+        <v>74311</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05562892079418497</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04278670002902714</v>
+        <v>0.04174685472825412</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06996300202369328</v>
+        <v>0.07197403037610889</v>
       </c>
     </row>
     <row r="22">
@@ -2002,19 +2002,19 @@
         <v>444414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>428425</v>
+        <v>427777</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>460819</v>
+        <v>459912</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8579214101257331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8270538671851219</v>
+        <v>0.8258039458192133</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8895890899665205</v>
+        <v>0.8878385570605829</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>454</v>
@@ -2023,19 +2023,19 @@
         <v>464847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>450806</v>
+        <v>449031</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>477548</v>
+        <v>477119</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9035600611985738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.876266386163557</v>
+        <v>0.8728168927097756</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.928247799620068</v>
+        <v>0.9274134311476365</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>868</v>
@@ -2044,19 +2044,19 @@
         <v>909261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>887877</v>
+        <v>885496</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>928394</v>
+        <v>929968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8806622515643671</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8599508705936115</v>
+        <v>0.8576451945413982</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8991938947398401</v>
+        <v>0.9007184739234263</v>
       </c>
     </row>
     <row r="23">
@@ -2195,19 +2195,19 @@
         <v>32593</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23150</v>
+        <v>22456</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45999</v>
+        <v>45249</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0842821316918001</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05986358066877719</v>
+        <v>0.05806835313096221</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1189486759028773</v>
+        <v>0.1170109967532331</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2216,19 +2216,19 @@
         <v>28723</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19799</v>
+        <v>19861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42575</v>
+        <v>41349</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07124807462408247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04911157185370311</v>
+        <v>0.04926602144261796</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1056090974182858</v>
+        <v>0.1025687477510889</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2237,19 +2237,19 @@
         <v>61316</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46715</v>
+        <v>47346</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77100</v>
+        <v>78481</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07762955123038834</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05914466211338416</v>
+        <v>0.05994333467629488</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09761363135569914</v>
+        <v>0.09936234044617087</v>
       </c>
     </row>
     <row r="26">
@@ -2266,19 +2266,19 @@
         <v>12063</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7189</v>
+        <v>6668</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20044</v>
+        <v>20250</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03119277970720469</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01858973191855846</v>
+        <v>0.01724324313668258</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05183136590583291</v>
+        <v>0.05236448216568169</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2287,19 +2287,19 @@
         <v>24078</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15629</v>
+        <v>15535</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35259</v>
+        <v>35707</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05972518843312468</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03876778635898511</v>
+        <v>0.0385343502137284</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0874618603171943</v>
+        <v>0.08857249045810267</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>36</v>
@@ -2308,19 +2308,19 @@
         <v>36140</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25953</v>
+        <v>26596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49465</v>
+        <v>49424</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04575571616059771</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03285792961025797</v>
+        <v>0.03367276729399923</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06262610383800643</v>
+        <v>0.06257365822610642</v>
       </c>
     </row>
     <row r="27">
@@ -2337,19 +2337,19 @@
         <v>342055</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>327068</v>
+        <v>329035</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>353253</v>
+        <v>354416</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8845250886009952</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8457709580908396</v>
+        <v>0.850858004352035</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9134832363281932</v>
+        <v>0.9164896517720834</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>344</v>
@@ -2358,19 +2358,19 @@
         <v>350339</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>334585</v>
+        <v>335344</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>362218</v>
+        <v>361941</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8690267369427929</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8299483983254005</v>
+        <v>0.8318326709133097</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8984946984537517</v>
+        <v>0.8978071010867733</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>693</v>
@@ -2379,19 +2379,19 @@
         <v>692393</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>674024</v>
+        <v>672950</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>711150</v>
+        <v>709942</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8766147326090139</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8533577979413766</v>
+        <v>0.8519982498580232</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9003623467300486</v>
+        <v>0.8988320057747947</v>
       </c>
     </row>
     <row r="28">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4660</v>
+        <v>4476</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002714585473574959</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0135892569089879</v>
+        <v>0.01305071088335156</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4104</v>
+        <v>4688</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001464828876717521</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.006458475398831708</v>
+        <v>0.007376800039691024</v>
       </c>
     </row>
     <row r="30">
@@ -2546,19 +2546,19 @@
         <v>7198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3304</v>
+        <v>2812</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14685</v>
+        <v>14863</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02460289109015735</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0112910036477177</v>
+        <v>0.009611050121010397</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05019239755423762</v>
+        <v>0.05079969756935868</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2567,19 +2567,19 @@
         <v>10759</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5670</v>
+        <v>5527</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18969</v>
+        <v>18736</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03137322376988437</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01653301899368987</v>
+        <v>0.01611649124337465</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05531444450726763</v>
+        <v>0.05463564905119692</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -2588,19 +2588,19 @@
         <v>17957</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>11434</v>
+        <v>11144</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>28982</v>
+        <v>27830</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02825625876297106</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01799221141055542</v>
+        <v>0.01753538130819106</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04560345545462499</v>
+        <v>0.04379133386902777</v>
       </c>
     </row>
     <row r="31">
@@ -2617,19 +2617,19 @@
         <v>11087</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5600</v>
+        <v>6379</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18521</v>
+        <v>18346</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03789358386476924</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01914122240161899</v>
+        <v>0.02180088297923599</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06330243272491611</v>
+        <v>0.06270523806781665</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -2638,19 +2638,19 @@
         <v>13198</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7803</v>
+        <v>7336</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22158</v>
+        <v>21000</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03848620660618952</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02275260442752973</v>
+        <v>0.02139273613981951</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06461255353805333</v>
+        <v>0.06123701084705484</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>26</v>
@@ -2659,19 +2659,19 @@
         <v>24285</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>16464</v>
+        <v>16535</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>34292</v>
+        <v>35039</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03821337151304274</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02590718380400201</v>
+        <v>0.02601784061359812</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05395937848244087</v>
+        <v>0.05513490499824932</v>
       </c>
     </row>
     <row r="32">
@@ -2688,19 +2688,19 @@
         <v>274298</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>265115</v>
+        <v>264686</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>281309</v>
+        <v>280933</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9375035250450734</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9061176936569137</v>
+        <v>0.9046516941409325</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9614668117590141</v>
+        <v>0.9601822051420171</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>345</v>
@@ -2709,19 +2709,19 @@
         <v>318046</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>306161</v>
+        <v>307449</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>326031</v>
+        <v>325725</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9274259841503512</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8927696118931908</v>
+        <v>0.8965241884770211</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9507111023115159</v>
+        <v>0.9498180514090399</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>629</v>
@@ -2730,19 +2730,19 @@
         <v>592343</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>578988</v>
+        <v>577875</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>603369</v>
+        <v>603541</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9320655408472687</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9110510252317626</v>
+        <v>0.9092985600108943</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9494137264671482</v>
+        <v>0.9496844959640078</v>
       </c>
     </row>
     <row r="33">
@@ -2881,19 +2881,19 @@
         <v>3967</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10215</v>
+        <v>9766</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0190689721240509</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004549273874544023</v>
+        <v>0.004512083450976754</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04910188176579174</v>
+        <v>0.04694073765642059</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2902,19 +2902,19 @@
         <v>5439</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1998</v>
+        <v>1852</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11145</v>
+        <v>11852</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01629024526121721</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005983912963969423</v>
+        <v>0.005545718311859453</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03337701336813102</v>
+        <v>0.03549440978295316</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -2923,19 +2923,19 @@
         <v>9407</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4191</v>
+        <v>4371</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16631</v>
+        <v>16965</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01735693593638394</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00773227011029992</v>
+        <v>0.008065441716350021</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03068669402877327</v>
+        <v>0.03130338337039027</v>
       </c>
     </row>
     <row r="36">
@@ -2952,19 +2952,19 @@
         <v>6138</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2529</v>
+        <v>2548</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13214</v>
+        <v>13168</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02950148032949725</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01215732357170709</v>
+        <v>0.01224715026921469</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06351809791779887</v>
+        <v>0.06329441186254477</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -2973,19 +2973,19 @@
         <v>4587</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11435</v>
+        <v>11402</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01373744985811047</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003556142210774283</v>
+        <v>0.003507085330361598</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03424597942668384</v>
+        <v>0.03414808167605123</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -2994,19 +2994,19 @@
         <v>10725</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5457</v>
+        <v>5237</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19290</v>
+        <v>20970</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01978890620374224</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0100689576775473</v>
+        <v>0.009663701355771435</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03559361975846478</v>
+        <v>0.03869321288839441</v>
       </c>
     </row>
     <row r="37">
@@ -3023,19 +3023,19 @@
         <v>197938</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>189606</v>
+        <v>190090</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>202739</v>
+        <v>202968</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9514295475464518</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9113810209636813</v>
+        <v>0.9137031527357287</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9745075731796106</v>
+        <v>0.975607718526006</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>281</v>
@@ -3044,19 +3044,19 @@
         <v>323882</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>315510</v>
+        <v>315665</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>329214</v>
+        <v>329373</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9699723048806723</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9449003691290289</v>
+        <v>0.9453647694122945</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9859435380611873</v>
+        <v>0.9864197714406724</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>489</v>
@@ -3065,19 +3065,19 @@
         <v>521820</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>512078</v>
+        <v>510208</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>529707</v>
+        <v>529629</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9628541578598738</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9448782096334718</v>
+        <v>0.9414279442507654</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.977406916494959</v>
+        <v>0.9772632177187029</v>
       </c>
     </row>
     <row r="38">
@@ -3169,19 +3169,19 @@
         <v>6100</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001865233617310533</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0005895041009453678</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>6</v>
@@ -3211,19 +3211,19 @@
         <v>8090</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001217097974012659</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
     </row>
     <row r="40">
@@ -3240,19 +3240,19 @@
         <v>215626</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0659378354222936</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>170</v>
@@ -3261,19 +3261,19 @@
         <v>175563</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05198509762536468</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>379</v>
@@ -3282,19 +3282,19 @@
         <v>391188</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.05884913317642463</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
     </row>
     <row r="41">
@@ -3311,19 +3311,19 @@
         <v>130768</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>139</v>
@@ -3332,19 +3332,19 @@
         <v>146110</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>268</v>
@@ -3353,19 +3353,19 @@
         <v>276878</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="42">
@@ -3382,19 +3382,19 @@
         <v>2917642</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2879798</v>
+        <v>2880655</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2953406</v>
+        <v>2951954</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8922084788658531</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.880635763183515</v>
+        <v>0.8808977508968203</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9031451275137928</v>
+        <v>0.902701007485365</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2984</v>
@@ -3403,19 +3403,19 @@
         <v>3053507</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3016292</v>
+        <v>3019218</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3085698</v>
+        <v>3086992</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9041613262477592</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8931418905883693</v>
+        <v>0.894008427077558</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9136934775182509</v>
+        <v>0.9140765587839939</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5850</v>
@@ -3424,19 +3424,19 @@
         <v>5971148</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5916570</v>
+        <v>5920057</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6017620</v>
+        <v>6022116</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8982811348072052</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8900706284595722</v>
+        <v>0.8905951537277289</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9052722087049012</v>
+        <v>0.9059486196889498</v>
       </c>
     </row>
     <row r="43">
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6157</v>
+        <v>6191</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0027208578189574</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01358624600092996</v>
+        <v>0.01366134151994678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6183</v>
+        <v>6654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001395748897932685</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006999214944091763</v>
+        <v>0.007532100130462417</v>
       </c>
     </row>
     <row r="5">
@@ -3834,19 +3834,19 @@
         <v>8671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4692</v>
+        <v>3826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15621</v>
+        <v>15332</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01913510044004265</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01035417756309899</v>
+        <v>0.008442660789583714</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03447133400407981</v>
+        <v>0.03383246421270474</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -3855,19 +3855,19 @@
         <v>18150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11372</v>
+        <v>10778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29310</v>
+        <v>28876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04218635815861536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02643197438288038</v>
+        <v>0.02505097468041798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06812574994434353</v>
+        <v>0.0671187098155597</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -3876,19 +3876,19 @@
         <v>26821</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18003</v>
+        <v>18069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40092</v>
+        <v>39146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0303614964063799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02037917025566172</v>
+        <v>0.02045393334792226</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04538360067680248</v>
+        <v>0.04431290079476368</v>
       </c>
     </row>
     <row r="6">
@@ -3905,19 +3905,19 @@
         <v>16544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9671</v>
+        <v>9606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26301</v>
+        <v>26480</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03650801020532527</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02134032293781637</v>
+        <v>0.02119670351270088</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05803887023359373</v>
+        <v>0.05843333602573701</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -3926,19 +3926,19 @@
         <v>10759</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5258</v>
+        <v>5769</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17462</v>
+        <v>19361</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02500756754780505</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01222079643101433</v>
+        <v>0.01340848905619013</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04058741105780599</v>
+        <v>0.04500041894938782</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -3947,19 +3947,19 @@
         <v>27303</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18118</v>
+        <v>17775</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39675</v>
+        <v>39345</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03090707837601978</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02050980549775405</v>
+        <v>0.02012069885047926</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04491225422195429</v>
+        <v>0.04453814986995308</v>
       </c>
     </row>
     <row r="7">
@@ -3976,19 +3976,19 @@
         <v>426716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>416021</v>
+        <v>415054</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>435992</v>
+        <v>435837</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9416360315356747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9180347613004022</v>
+        <v>0.9159012923875719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9621035319167083</v>
+        <v>0.9617612242149219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>392</v>
@@ -3997,19 +3997,19 @@
         <v>401321</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>389853</v>
+        <v>390114</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>410583</v>
+        <v>410587</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9328060742935796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9061491247219849</v>
+        <v>0.9067560242099846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9543341907816846</v>
+        <v>0.9543433475649932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>812</v>
@@ -4018,19 +4018,19 @@
         <v>828038</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>811617</v>
+        <v>810188</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>841863</v>
+        <v>840760</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9373356763196676</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9187476245944077</v>
+        <v>0.91712952243321</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9529860488725643</v>
+        <v>0.9517377614457225</v>
       </c>
     </row>
     <row r="8">
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8191</v>
+        <v>8605</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003607705981902039</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01192179199438621</v>
+        <v>0.01252449102563039</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4821</v>
+        <v>7250</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001959157777929476</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.007900208543169673</v>
+        <v>0.01188109843866767</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -4167,16 +4167,16 @@
         <v>1192</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9954</v>
+        <v>8685</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002832247305501585</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0009190209348033724</v>
+        <v>0.0009188522395193626</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007672631161517316</v>
+        <v>0.006694788052482773</v>
       </c>
     </row>
     <row r="10">
@@ -4193,19 +4193,19 @@
         <v>47945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36376</v>
+        <v>35724</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62954</v>
+        <v>63287</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06977973033652463</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.052942894957449</v>
+        <v>0.05199308817441782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09162469941950968</v>
+        <v>0.09210923925566845</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4214,19 +4214,19 @@
         <v>32441</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23135</v>
+        <v>23131</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46268</v>
+        <v>45083</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05315984266228246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03791071595229061</v>
+        <v>0.03790344786653385</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07581680710367074</v>
+        <v>0.07387648842674517</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -4235,19 +4235,19 @@
         <v>80386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64621</v>
+        <v>64487</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99471</v>
+        <v>99211</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06196192066208787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04981016773067359</v>
+        <v>0.04970702646881647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07667258884950616</v>
+        <v>0.07647216747636333</v>
       </c>
     </row>
     <row r="11">
@@ -4264,19 +4264,19 @@
         <v>27951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18309</v>
+        <v>18218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40803</v>
+        <v>42561</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04068112223888703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0266477728572053</v>
+        <v>0.02651459466957696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05938541799800058</v>
+        <v>0.06194438326453464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -4285,19 +4285,19 @@
         <v>20994</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13466</v>
+        <v>13516</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33452</v>
+        <v>33139</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03440195759409164</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02206691857753863</v>
+        <v>0.02214769110954336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05481664460115259</v>
+        <v>0.05430352367045174</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -4306,19 +4306,19 @@
         <v>48945</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36535</v>
+        <v>35945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65545</v>
+        <v>65225</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03772747326907226</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02816131282667916</v>
+        <v>0.02770681180761866</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05052238642478901</v>
+        <v>0.0502761239508567</v>
       </c>
     </row>
     <row r="12">
@@ -4335,19 +4335,19 @@
         <v>608712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>588453</v>
+        <v>589289</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>624470</v>
+        <v>623812</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8859314414426863</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8564463987583971</v>
+        <v>0.857663052960103</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9088653145327855</v>
+        <v>0.9079089526311581</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>519</v>
@@ -4356,19 +4356,19 @@
         <v>555624</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>538939</v>
+        <v>539011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>567889</v>
+        <v>568244</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9104790419656964</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8831379210305658</v>
+        <v>0.8832551652245407</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9305773188364407</v>
+        <v>0.9311582461936316</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1112</v>
@@ -4377,19 +4377,19 @@
         <v>1164336</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1142102</v>
+        <v>1141319</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1185607</v>
+        <v>1186197</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8974783587633383</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8803400212621963</v>
+        <v>0.8797366986450018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9138739936143289</v>
+        <v>0.9143284791462558</v>
       </c>
     </row>
     <row r="13">
@@ -4528,19 +4528,19 @@
         <v>48407</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36005</v>
+        <v>35974</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>63986</v>
+        <v>62815</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07099185212228677</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05280437328511511</v>
+        <v>0.05275845610989572</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09384049907797751</v>
+        <v>0.09212284486277922</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -4549,19 +4549,19 @@
         <v>35945</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25467</v>
+        <v>25451</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51082</v>
+        <v>49987</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05056592860711367</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03582646921256692</v>
+        <v>0.03580300599414003</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07186085567240066</v>
+        <v>0.07031946935033009</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>80</v>
@@ -4570,19 +4570,19 @@
         <v>84351</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>67928</v>
+        <v>68162</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>103826</v>
+        <v>102981</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06056632450702721</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04877372284412927</v>
+        <v>0.04894192170852877</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07454915918851764</v>
+        <v>0.07394247286244272</v>
       </c>
     </row>
     <row r="16">
@@ -4599,19 +4599,19 @@
         <v>36974</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26321</v>
+        <v>25951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52969</v>
+        <v>52242</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05422426440611817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03860093924971062</v>
+        <v>0.03805887458700646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07768304392718371</v>
+        <v>0.07661653778732011</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4620,19 +4620,19 @@
         <v>24913</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15746</v>
+        <v>15767</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38424</v>
+        <v>37927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03504654361077995</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02215122258583649</v>
+        <v>0.02218075972555118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05405407039235002</v>
+        <v>0.05335384168881597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -4641,19 +4641,19 @@
         <v>61886</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45403</v>
+        <v>46881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80451</v>
+        <v>81588</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04443582778532033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03260052087289208</v>
+        <v>0.03366149245980843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05776576448111726</v>
+        <v>0.05858212771967582</v>
       </c>
     </row>
     <row r="17">
@@ -4670,19 +4670,19 @@
         <v>596483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>574966</v>
+        <v>576398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>611713</v>
+        <v>613352</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8747838834715951</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8432277338347797</v>
+        <v>0.8453278725938479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8971193932546172</v>
+        <v>0.8995244197380559</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>613</v>
@@ -4691,19 +4691,19 @@
         <v>649992</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>632125</v>
+        <v>632595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>664270</v>
+        <v>664548</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9143875277821064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8892522330652703</v>
+        <v>0.889913368973326</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9344733018453278</v>
+        <v>0.9348642673138372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1185</v>
@@ -4712,19 +4712,19 @@
         <v>1246474</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1218508</v>
+        <v>1222579</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1268704</v>
+        <v>1269020</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8949978477076524</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8749174876602374</v>
+        <v>0.8778403152341574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9109593792719923</v>
+        <v>0.9111859919545093</v>
       </c>
     </row>
     <row r="18">
@@ -4863,19 +4863,19 @@
         <v>30038</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20050</v>
+        <v>19838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43179</v>
+        <v>42188</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04887283085285546</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03262175551607593</v>
+        <v>0.03227709419168123</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0702538485510992</v>
+        <v>0.0686406146241237</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -4884,19 +4884,19 @@
         <v>30505</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20301</v>
+        <v>19889</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45531</v>
+        <v>44377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04950471178693261</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03294536439735466</v>
+        <v>0.03227696742031099</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07389020923775486</v>
+        <v>0.07201761864374089</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -4905,19 +4905,19 @@
         <v>60543</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45873</v>
+        <v>45970</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>77957</v>
+        <v>79810</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04918917751455213</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03727041815323639</v>
+        <v>0.03734912045565899</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06333775618452267</v>
+        <v>0.0648434022356482</v>
       </c>
     </row>
     <row r="21">
@@ -4934,19 +4934,19 @@
         <v>31694</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19709</v>
+        <v>19979</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47382</v>
+        <v>48938</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05156737079812419</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03206665001252016</v>
+        <v>0.03250669592525933</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07709253494964133</v>
+        <v>0.07962299838809353</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -4955,19 +4955,19 @@
         <v>34876</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23101</v>
+        <v>23121</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50136</v>
+        <v>50581</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05659939954305138</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03749009208550624</v>
+        <v>0.03752248825564725</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08136410180967218</v>
+        <v>0.08208474619789448</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -4976,19 +4976,19 @@
         <v>66571</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49294</v>
+        <v>50053</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>88084</v>
+        <v>86470</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05408661993062775</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04004970118849856</v>
+        <v>0.04066645873140675</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07156546380955599</v>
+        <v>0.07025455703887724</v>
       </c>
     </row>
     <row r="22">
@@ -5005,19 +5005,19 @@
         <v>552885</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>534589</v>
+        <v>532646</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>569455</v>
+        <v>567500</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8995597983490203</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8697925186800567</v>
+        <v>0.8666307413196557</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9265206021640735</v>
+        <v>0.9233395253863235</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>485</v>
@@ -5026,19 +5026,19 @@
         <v>550818</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>530785</v>
+        <v>532655</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>565954</v>
+        <v>566668</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.893895888670016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8613863295352474</v>
+        <v>0.8644208138887434</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9184594404597936</v>
+        <v>0.9196185917823991</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>983</v>
@@ -5047,19 +5047,19 @@
         <v>1103702</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1075918</v>
+        <v>1077725</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1124886</v>
+        <v>1124469</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8967242025548201</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8741499406913099</v>
+        <v>0.8756180976125276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.913935040583281</v>
+        <v>0.9135965863174583</v>
       </c>
     </row>
     <row r="23">
@@ -5198,19 +5198,19 @@
         <v>11194</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5470</v>
+        <v>5577</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20797</v>
+        <v>22707</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02606635246429738</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01273765622764015</v>
+        <v>0.01298656038465395</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04842979341878551</v>
+        <v>0.05287708894830335</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -5219,19 +5219,19 @@
         <v>17354</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9804</v>
+        <v>10170</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28105</v>
+        <v>27480</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03875361870475492</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02189452288679481</v>
+        <v>0.02271082883799864</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06276334272785082</v>
+        <v>0.06136583219968011</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -5240,19 +5240,19 @@
         <v>28548</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17973</v>
+        <v>19042</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42627</v>
+        <v>41893</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03254283327666424</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02048877265549049</v>
+        <v>0.0217073082273286</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0485929341800603</v>
+        <v>0.04775573654309773</v>
       </c>
     </row>
     <row r="26">
@@ -5269,19 +5269,19 @@
         <v>23359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13446</v>
+        <v>14754</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33854</v>
+        <v>36756</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05439493618214449</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03131048118789592</v>
+        <v>0.03435650696079685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07883572236048855</v>
+        <v>0.08559386543758161</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -5290,19 +5290,19 @@
         <v>14072</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7273</v>
+        <v>7254</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24549</v>
+        <v>25052</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03142549395721027</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01624123296962595</v>
+        <v>0.01619893090114452</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05482241376578875</v>
+        <v>0.05594509851968708</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -5311,19 +5311,19 @@
         <v>37431</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25707</v>
+        <v>25443</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53678</v>
+        <v>54565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04266970325795618</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02930469236998767</v>
+        <v>0.02900371801792509</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.061189860043297</v>
+        <v>0.06220128509153657</v>
       </c>
     </row>
     <row r="27">
@@ -5340,19 +5340,19 @@
         <v>394877</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>380337</v>
+        <v>377966</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>405959</v>
+        <v>405181</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9195387113535581</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8856797054809299</v>
+        <v>0.8801602525991318</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9453458415667012</v>
+        <v>0.9435338557031939</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>380</v>
@@ -5361,19 +5361,19 @@
         <v>416374</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>403973</v>
+        <v>401203</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>427543</v>
+        <v>426169</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9298208873380348</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9021287986644029</v>
+        <v>0.895943462389663</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9547623040939215</v>
+        <v>0.951694504555505</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>744</v>
@@ -5382,19 +5382,19 @@
         <v>811250</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>792132</v>
+        <v>792031</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>826434</v>
+        <v>827232</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9247874634653795</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9029931400192071</v>
+        <v>0.9028780547065375</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9420956481501864</v>
+        <v>0.9430056774487475</v>
       </c>
     </row>
     <row r="28">
@@ -5533,19 +5533,19 @@
         <v>7084</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2210</v>
+        <v>2886</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15354</v>
+        <v>16272</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02286583099753135</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007134350766104605</v>
+        <v>0.00931465708585094</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04956194190204379</v>
+        <v>0.05252609187493806</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -5554,19 +5554,19 @@
         <v>9766</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4805</v>
+        <v>4957</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18054</v>
+        <v>18409</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02758873739535298</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01357484964388209</v>
+        <v>0.01400319463682116</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05100036546144419</v>
+        <v>0.05200373565876785</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>15</v>
@@ -5575,19 +5575,19 @@
         <v>16850</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9735</v>
+        <v>9945</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>27231</v>
+        <v>28119</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02538456382552158</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01466524640308258</v>
+        <v>0.01498161372451853</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04102367136434484</v>
+        <v>0.04236125967294743</v>
       </c>
     </row>
     <row r="31">
@@ -5604,19 +5604,19 @@
         <v>17342</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10233</v>
+        <v>9820</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29258</v>
+        <v>29984</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05598058521533346</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03303331628716993</v>
+        <v>0.0316998448335602</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09444440083299925</v>
+        <v>0.09679010221454577</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -5625,19 +5625,19 @@
         <v>6499</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2732</v>
+        <v>2778</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13346</v>
+        <v>13753</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01835949678012875</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007716409749664518</v>
+        <v>0.007848245857647668</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0377022976915795</v>
+        <v>0.03885124608420148</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -5646,19 +5646,19 @@
         <v>23841</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15127</v>
+        <v>15020</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37604</v>
+        <v>36666</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03591720421964423</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02278974799699844</v>
+        <v>0.02262797519539826</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05665087737925374</v>
+        <v>0.05523789487192176</v>
       </c>
     </row>
     <row r="32">
@@ -5675,19 +5675,19 @@
         <v>285360</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>273346</v>
+        <v>269913</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>294565</v>
+        <v>294357</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9211535837871352</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8823691165887679</v>
+        <v>0.8712898653854512</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9508652630425554</v>
+        <v>0.9501936538899971</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>329</v>
@@ -5696,19 +5696,19 @@
         <v>337731</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>327183</v>
+        <v>327677</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>344262</v>
+        <v>343867</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9540517658245182</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9242573349520481</v>
+        <v>0.9256515187975545</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.972501972445854</v>
+        <v>0.9713869850762608</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>591</v>
@@ -5717,19 +5717,19 @@
         <v>623091</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>607621</v>
+        <v>608636</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>634435</v>
+        <v>636372</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9386982319548342</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9153930685075699</v>
+        <v>0.9169217469712598</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9557880059619071</v>
+        <v>0.958706523476925</v>
       </c>
     </row>
     <row r="33">
@@ -5868,19 +5868,19 @@
         <v>4324</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13654</v>
+        <v>13713</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01730531796267018</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004186719198964669</v>
+        <v>0.004177803586360756</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05464912517601532</v>
+        <v>0.05488304384824497</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -5889,19 +5889,19 @@
         <v>5321</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2105</v>
+        <v>2117</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10763</v>
+        <v>11829</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0136788071881023</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005412519662078321</v>
+        <v>0.005442045680100674</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02766962635868552</v>
+        <v>0.03040997712413223</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -5910,19 +5910,19 @@
         <v>9645</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5215</v>
+        <v>4277</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18385</v>
+        <v>18229</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01509716109018501</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.008164059297999474</v>
+        <v>0.006695477875463867</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02877965491371347</v>
+        <v>0.02853492554032813</v>
       </c>
     </row>
     <row r="36">
@@ -5939,19 +5939,19 @@
         <v>5126</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1962</v>
+        <v>2002</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11433</v>
+        <v>11066</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02051506825048666</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007853794136957836</v>
+        <v>0.008014525428644075</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04576019956131192</v>
+        <v>0.04429126170437918</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -5960,19 +5960,19 @@
         <v>10385</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4469</v>
+        <v>5183</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>20168</v>
+        <v>20432</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02669737134012714</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01148903651433894</v>
+        <v>0.01332530699728762</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05184843309631739</v>
+        <v>0.05252732509002342</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -5981,19 +5981,19 @@
         <v>15510</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>9185</v>
+        <v>8321</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>26017</v>
+        <v>26156</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02427942906554657</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0143771565666313</v>
+        <v>0.01302492129738007</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04072591252941827</v>
+        <v>0.04094402084455167</v>
       </c>
     </row>
     <row r="37">
@@ -6010,19 +6010,19 @@
         <v>240402</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>230073</v>
+        <v>230684</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>245719</v>
+        <v>245563</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9621796137868431</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9208409198169253</v>
+        <v>0.9232844105446362</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.983463460647074</v>
+        <v>0.9828368304288997</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>337</v>
@@ -6031,19 +6031,19 @@
         <v>373274</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>363600</v>
+        <v>362817</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>380255</v>
+        <v>379995</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9596238214717706</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9347556465658239</v>
+        <v>0.9327414489701283</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9775720805469849</v>
+        <v>0.9769048006441753</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>551</v>
@@ -6052,19 +6052,19 @@
         <v>613675</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>600829</v>
+        <v>601105</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>622966</v>
+        <v>623193</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9606234098442684</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9405145171023745</v>
+        <v>0.9409462548351021</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9751671804722698</v>
+        <v>0.9755217616934879</v>
       </c>
     </row>
     <row r="38">
@@ -6156,19 +6156,19 @@
         <v>3712</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>10009</v>
+        <v>10023</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001083486624067237</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0003529966623905962</v>
+        <v>0.0003519520413960138</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.002921677187784288</v>
+        <v>0.002925602997997444</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0003359985463963319</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.001684012584879153</v>
+        <v>0.001682962210848899</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -6198,19 +6198,19 @@
         <v>4907</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>11579</v>
+        <v>12139</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0007026514280744572</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0001751618645470115</v>
+        <v>0.0001796426628966159</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001657895224607754</v>
+        <v>0.001738117953636878</v>
       </c>
     </row>
     <row r="40">
@@ -6227,19 +6227,19 @@
         <v>157662</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>133178</v>
+        <v>132504</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>182807</v>
+        <v>184248</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04602191712718748</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03887494816695725</v>
+        <v>0.03867836304736937</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05336189745868819</v>
+        <v>0.05378243047157579</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>138</v>
@@ -6248,19 +6248,19 @@
         <v>149481</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>126801</v>
+        <v>126640</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>176435</v>
+        <v>176584</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04200910711895786</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03563517804551721</v>
+        <v>0.03558986943387049</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04958403618474268</v>
+        <v>0.04962583180756835</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>285</v>
@@ -6269,19 +6269,19 @@
         <v>307143</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>273734</v>
+        <v>273976</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>346887</v>
+        <v>345686</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0439774440023081</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03919390540770182</v>
+        <v>0.03922843863669839</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04966805321172874</v>
+        <v>0.04949602102983668</v>
       </c>
     </row>
     <row r="41">
@@ -6298,19 +6298,19 @@
         <v>158990</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04640956665480246</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>104</v>
@@ -6319,19 +6319,19 @@
         <v>122499</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03442605532523693</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>239</v>
@@ -6340,19 +6340,19 @@
         <v>281488</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04030412762211991</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
     </row>
     <row r="42">
@@ -6369,19 +6369,19 @@
         <v>3105435</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3067843</v>
+        <v>3066793</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3141063</v>
+        <v>3139565</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9064850295939428</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8955118567012791</v>
+        <v>0.8952053297779341</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9168850849892409</v>
+        <v>0.916447693830337</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3055</v>
@@ -6390,19 +6390,19 @@
         <v>3285133</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3251837</v>
+        <v>3252777</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3317618</v>
+        <v>3320237</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9232288390094089</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9138714403771363</v>
+        <v>0.9141357309009236</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9323580165370061</v>
+        <v>0.9330940274544864</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5978</v>
@@ -6411,19 +6411,19 @@
         <v>6390568</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6339461</v>
+        <v>6334609</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6439485</v>
+        <v>6433815</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9150157769474975</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.907698166376712</v>
+        <v>0.9070033752770634</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9220198370261226</v>
+        <v>0.9212079495076542</v>
       </c>
     </row>
     <row r="43">
@@ -6805,19 +6805,19 @@
         <v>17849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10648</v>
+        <v>9750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28839</v>
+        <v>27771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04274083366341117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0254964274471149</v>
+        <v>0.02334681903160628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06905602915908393</v>
+        <v>0.06649899789291397</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -6826,19 +6826,19 @@
         <v>8853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4039</v>
+        <v>4583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16356</v>
+        <v>15930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02236953871058822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01020632241988511</v>
+        <v>0.01157949997921376</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04132955187732067</v>
+        <v>0.04025183785006092</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -6847,19 +6847,19 @@
         <v>26702</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18056</v>
+        <v>16871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38638</v>
+        <v>37763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03282895093470813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02219936431804272</v>
+        <v>0.02074236302636374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04750380263856197</v>
+        <v>0.04642837554199552</v>
       </c>
     </row>
     <row r="6">
@@ -6876,19 +6876,19 @@
         <v>13833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7450</v>
+        <v>7471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22582</v>
+        <v>24334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03312462369680318</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01783988367497451</v>
+        <v>0.01789080412893613</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05407288101040511</v>
+        <v>0.05826772265354938</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -6897,19 +6897,19 @@
         <v>11635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5927</v>
+        <v>5879</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19442</v>
+        <v>19293</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02939939018674436</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01497663211399262</v>
+        <v>0.0148551604520454</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04912712621073359</v>
+        <v>0.04875102559495709</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -6918,19 +6918,19 @@
         <v>25468</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17084</v>
+        <v>17005</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37420</v>
+        <v>36253</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03131206942500805</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02100379714225406</v>
+        <v>0.02090708870616975</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04600583915383762</v>
+        <v>0.04457086328305243</v>
       </c>
     </row>
     <row r="7">
@@ -6947,19 +6947,19 @@
         <v>385933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>373698</v>
+        <v>372753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>396627</v>
+        <v>396370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9241345426397857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8948370159812937</v>
+        <v>0.8925743061019359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9497402936221468</v>
+        <v>0.9491243772538818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>383</v>
@@ -6968,19 +6968,19 @@
         <v>375267</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>365571</v>
+        <v>363325</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>383179</v>
+        <v>382582</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9482310711026675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9237304824219186</v>
+        <v>0.9180555990732581</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9682238083518958</v>
+        <v>0.9667132001168489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>746</v>
@@ -6989,19 +6989,19 @@
         <v>761201</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>745635</v>
+        <v>746950</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>773901</v>
+        <v>774907</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9358589796402839</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9167224177619198</v>
+        <v>0.918338640967277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.951473158646054</v>
+        <v>0.9527099555703131</v>
       </c>
     </row>
     <row r="8">
@@ -7093,19 +7093,19 @@
         <v>3785</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10546</v>
+        <v>10681</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.006409390731165745</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001785129826167379</v>
+        <v>0.001794779696678678</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01786025536018961</v>
+        <v>0.01808902278448141</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5109</v>
+        <v>4259</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001514723863676304</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009095684527162896</v>
+        <v>0.007581981312784916</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -7135,19 +7135,19 @@
         <v>4636</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1231</v>
+        <v>1508</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12378</v>
+        <v>11435</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004023250928301123</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001068194345889885</v>
+        <v>0.00130859762765171</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01074274262177168</v>
+        <v>0.009924687039666777</v>
       </c>
     </row>
     <row r="10">
@@ -7164,19 +7164,19 @@
         <v>22981</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14405</v>
+        <v>14574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33309</v>
+        <v>34819</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03891890944968911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02439449470010187</v>
+        <v>0.0246817841570723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05640800414552167</v>
+        <v>0.05896578399570127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -7185,19 +7185,19 @@
         <v>43206</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33166</v>
+        <v>31965</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57009</v>
+        <v>57707</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07692202728729307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05904739549668134</v>
+        <v>0.0569094293623767</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1014953472334973</v>
+        <v>0.1027381782116705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -7206,19 +7206,19 @@
         <v>66188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51636</v>
+        <v>51256</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83625</v>
+        <v>83759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05744534946291375</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04481598014236073</v>
+        <v>0.04448563247289535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07257995092163887</v>
+        <v>0.07269621566227073</v>
       </c>
     </row>
     <row r="11">
@@ -7235,19 +7235,19 @@
         <v>19997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12253</v>
+        <v>12411</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29748</v>
+        <v>30355</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03386524493371999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02074996345884209</v>
+        <v>0.02101851092636665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05037835326511413</v>
+        <v>0.0514051277819083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -7256,19 +7256,19 @@
         <v>20062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12854</v>
+        <v>12504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29855</v>
+        <v>31188</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03571693905645394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02288503832612491</v>
+        <v>0.02226132419188323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05315297455755093</v>
+        <v>0.05552572355262595</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -7277,19 +7277,19 @@
         <v>40059</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28915</v>
+        <v>29061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54390</v>
+        <v>52230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03476794192385289</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02509602311169428</v>
+        <v>0.02522224925036204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04720628398040898</v>
+        <v>0.04533121967914887</v>
       </c>
     </row>
     <row r="12">
@@ -7306,19 +7306,19 @@
         <v>543733</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>529413</v>
+        <v>527996</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>556115</v>
+        <v>555751</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9208064548854251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.896556443654735</v>
+        <v>0.8941565814035574</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9417754421508605</v>
+        <v>0.9411588574595816</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>514</v>
@@ -7327,19 +7327,19 @@
         <v>497568</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>481673</v>
+        <v>480730</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>510723</v>
+        <v>510998</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8858463097925767</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8575462501216367</v>
+        <v>0.8558679266810262</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9092664047630442</v>
+        <v>0.9097552449521004</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1037</v>
@@ -7348,19 +7348,19 @@
         <v>1041301</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1018064</v>
+        <v>1019624</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1060081</v>
+        <v>1059207</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9037634576849323</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8835956737211237</v>
+        <v>0.8849492808865463</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9200630874550925</v>
+        <v>0.9193041011250193</v>
       </c>
     </row>
     <row r="13">
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6138</v>
+        <v>6133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001824128682754178</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009185948866769272</v>
+        <v>0.009178405001788797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6094</v>
+        <v>6117</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009167125691651012</v>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004583574403524746</v>
+        <v>0.00460118307109027</v>
       </c>
     </row>
     <row r="15">
@@ -7515,19 +7515,19 @@
         <v>34941</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24808</v>
+        <v>25142</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>49817</v>
+        <v>47930</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05229425535339351</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03712933129141854</v>
+        <v>0.03762866309557004</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07455768551275546</v>
+        <v>0.0717336756946281</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -7536,19 +7536,19 @@
         <v>34980</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23604</v>
+        <v>25352</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>48260</v>
+        <v>49610</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05288917288197119</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03568820489128542</v>
+        <v>0.03833203807987922</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0729686092647953</v>
+        <v>0.07500982624769986</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>66</v>
@@ -7557,19 +7557,19 @@
         <v>69921</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53029</v>
+        <v>54860</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>86416</v>
+        <v>87359</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05259019815435473</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03988501231447122</v>
+        <v>0.04126210161628334</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06499676149685996</v>
+        <v>0.06570553818654336</v>
       </c>
     </row>
     <row r="16">
@@ -7586,19 +7586,19 @@
         <v>40851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28381</v>
+        <v>28508</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56264</v>
+        <v>55831</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06114008648947693</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0424766796220456</v>
+        <v>0.04266678633173384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08420739333458999</v>
+        <v>0.08355937325643292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -7607,19 +7607,19 @@
         <v>32129</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22476</v>
+        <v>22501</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44550</v>
+        <v>44467</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04857865175435509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03398256471374041</v>
+        <v>0.03402102157353609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06735796915507364</v>
+        <v>0.06723289288000406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -7628,19 +7628,19 @@
         <v>72981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58003</v>
+        <v>56593</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>91325</v>
+        <v>92032</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05489137805338292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04362578059260398</v>
+        <v>0.04256536566899601</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06868854992335272</v>
+        <v>0.06922072692984654</v>
       </c>
     </row>
     <row r="17">
@@ -7657,19 +7657,19 @@
         <v>591151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>572350</v>
+        <v>572935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>608580</v>
+        <v>607469</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8847415294743753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8566039827542208</v>
+        <v>0.8574794502432075</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9108263505486199</v>
+        <v>0.909164063785786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>601</v>
@@ -7678,19 +7678,19 @@
         <v>594277</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>577592</v>
+        <v>577755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>609452</v>
+        <v>608372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8985321753636737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8733049260520105</v>
+        <v>0.8735519020032393</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9214775272678246</v>
+        <v>0.9198441339351565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1169</v>
@@ -7699,19 +7699,19 @@
         <v>1185427</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1159586</v>
+        <v>1158869</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1206998</v>
+        <v>1207127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8916017112230973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8721652731533071</v>
+        <v>0.8716262144936844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9078255436887311</v>
+        <v>0.9079230818896905</v>
       </c>
     </row>
     <row r="18">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9122</v>
+        <v>8316</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002730225989876237</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01411898165528556</v>
+        <v>0.01287182044197682</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8818</v>
+        <v>8845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001362950687821952</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006814091565260721</v>
+        <v>0.00683429659454948</v>
       </c>
     </row>
     <row r="20">
@@ -7866,19 +7866,19 @@
         <v>27322</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17446</v>
+        <v>17184</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40110</v>
+        <v>39011</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04229135084502325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02700456076236431</v>
+        <v>0.02659866413595171</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06208495106010437</v>
+        <v>0.06038395455491923</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -7887,19 +7887,19 @@
         <v>24788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16179</v>
+        <v>16760</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36065</v>
+        <v>37830</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03824701055853984</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02496431741965324</v>
+        <v>0.02586093183364192</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05564723951326929</v>
+        <v>0.05837081185392336</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -7908,19 +7908,19 @@
         <v>52110</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38687</v>
+        <v>40000</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>67866</v>
+        <v>69845</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0402659776314811</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02989379805480304</v>
+        <v>0.03090839714031236</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05244050685460401</v>
+        <v>0.05396965005781158</v>
       </c>
     </row>
     <row r="21">
@@ -7937,19 +7937,19 @@
         <v>33660</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23021</v>
+        <v>23006</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47462</v>
+        <v>49131</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05210131209799816</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03563418236639422</v>
+        <v>0.03561041883261357</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07346578412541879</v>
+        <v>0.07604801907593896</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -7958,19 +7958,19 @@
         <v>25412</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16639</v>
+        <v>16117</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>37090</v>
+        <v>36966</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03920940514361795</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02567399000565049</v>
+        <v>0.02486811890596062</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05722944999084038</v>
+        <v>0.0570379411029175</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -7979,19 +7979,19 @@
         <v>59072</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>45403</v>
+        <v>46043</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76794</v>
+        <v>77568</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04564514838097744</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03508306750821177</v>
+        <v>0.0355778233180624</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05933974412156939</v>
+        <v>0.05993720945055075</v>
       </c>
     </row>
     <row r="22">
@@ -8008,19 +8008,19 @@
         <v>583302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>566130</v>
+        <v>564300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>598437</v>
+        <v>597603</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9028771110671023</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8762965877578741</v>
+        <v>0.8734638159743877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9263047186024816</v>
+        <v>0.925013603360361</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>554</v>
@@ -8029,19 +8029,19 @@
         <v>597899</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>582587</v>
+        <v>582848</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>611500</v>
+        <v>609565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9225435842978422</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8989183436602962</v>
+        <v>0.8993207274173517</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9435304734503085</v>
+        <v>0.940544275165862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1082</v>
@@ -8050,19 +8050,19 @@
         <v>1181202</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1159325</v>
+        <v>1156813</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1200788</v>
+        <v>1199476</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9127259232997195</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8958219220358492</v>
+        <v>0.89388094050022</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9278604433901616</v>
+        <v>0.926846564327792</v>
       </c>
     </row>
     <row r="23">
@@ -8201,19 +8201,19 @@
         <v>8666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4189</v>
+        <v>4263</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15813</v>
+        <v>16066</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01821302602913399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008804773093738451</v>
+        <v>0.008959267028317177</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03323613311952853</v>
+        <v>0.03376822677241248</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -8222,19 +8222,19 @@
         <v>22390</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13838</v>
+        <v>14348</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34296</v>
+        <v>33711</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04506350051878973</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02785143259063351</v>
+        <v>0.02887885994870807</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06902771373608906</v>
+        <v>0.06784912829185756</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -8243,19 +8243,19 @@
         <v>31055</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20873</v>
+        <v>20254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44896</v>
+        <v>43844</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03192899153468897</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02146021148578064</v>
+        <v>0.02082422856864549</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0461589638273228</v>
+        <v>0.04507726661898184</v>
       </c>
     </row>
     <row r="26">
@@ -8272,19 +8272,19 @@
         <v>28793</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19624</v>
+        <v>18881</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40298</v>
+        <v>41473</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06051725841255805</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04124468741411132</v>
+        <v>0.03968371083993489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08469706100319942</v>
+        <v>0.08716697414223122</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -8293,19 +8293,19 @@
         <v>15413</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8802</v>
+        <v>8324</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25980</v>
+        <v>26164</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03102100770849775</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01771545594375279</v>
+        <v>0.01675405218861327</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05228916743323762</v>
+        <v>0.0526602196509802</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -8314,19 +8314,19 @@
         <v>44206</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31522</v>
+        <v>31558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58497</v>
+        <v>60324</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04544975718996495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03240892827355925</v>
+        <v>0.03244555061645341</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06014265595670142</v>
+        <v>0.06202107394716837</v>
       </c>
     </row>
     <row r="27">
@@ -8343,19 +8343,19 @@
         <v>438327</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>425726</v>
+        <v>423860</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>448664</v>
+        <v>448402</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9212697155583079</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8947837965489498</v>
+        <v>0.8908625267957875</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9429943603762437</v>
+        <v>0.9424448418162912</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>403</v>
@@ -8364,19 +8364,19 @@
         <v>459046</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>444165</v>
+        <v>444586</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>470549</v>
+        <v>470560</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9239154917727125</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8939636967287183</v>
+        <v>0.8948111687249604</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9470665526954801</v>
+        <v>0.9470876484284133</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>791</v>
@@ -8385,19 +8385,19 @@
         <v>897374</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>878753</v>
+        <v>876831</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>914737</v>
+        <v>913769</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9226212512753461</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9034766947116244</v>
+        <v>0.90150009454396</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9404726615431842</v>
+        <v>0.9394778019349971</v>
       </c>
     </row>
     <row r="28">
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5396</v>
+        <v>5854</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002879425593343581</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01434811412632774</v>
+        <v>0.01556757690307632</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6244</v>
+        <v>5191</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001524292155224193</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008790009378173799</v>
+        <v>0.007307831618138832</v>
       </c>
     </row>
     <row r="30">
@@ -8552,19 +8552,19 @@
         <v>5831</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2096</v>
+        <v>1968</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13751</v>
+        <v>14607</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01743973827114302</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006268100329984602</v>
+        <v>0.005887112398037155</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04113114769114487</v>
+        <v>0.04368934471020334</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -8573,19 +8573,19 @@
         <v>9084</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4110</v>
+        <v>4123</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17079</v>
+        <v>17810</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0241553618439991</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0109301167836177</v>
+        <v>0.01096447827107953</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04541646078556133</v>
+        <v>0.04735989087464321</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -8594,19 +8594,19 @@
         <v>14915</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8404</v>
+        <v>8490</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>26052</v>
+        <v>25772</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0209948127114089</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01183028396684208</v>
+        <v>0.01195143219645376</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03667211121970444</v>
+        <v>0.03627897771064356</v>
       </c>
     </row>
     <row r="31">
@@ -8623,19 +8623,19 @@
         <v>12663</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7344</v>
+        <v>6634</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21571</v>
+        <v>22278</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03787473964420127</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02196563353473852</v>
+        <v>0.01984322168463616</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06452033697525396</v>
+        <v>0.0666334123841797</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -8644,19 +8644,19 @@
         <v>13975</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7349</v>
+        <v>7094</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22867</v>
+        <v>23525</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03716174114331175</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01954217822490655</v>
+        <v>0.01886324019884285</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06080610572853003</v>
+        <v>0.06255466247091208</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -8665,19 +8665,19 @@
         <v>26638</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>17756</v>
+        <v>17684</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40016</v>
+        <v>37899</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03749729699588109</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02499480756338343</v>
+        <v>0.02489320320144165</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05632904581032437</v>
+        <v>0.05334936452590896</v>
       </c>
     </row>
     <row r="32">
@@ -8694,19 +8694,19 @@
         <v>315837</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>306022</v>
+        <v>305241</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>323252</v>
+        <v>323458</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9446855220846557</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.91532995639292</v>
+        <v>0.9129937528197348</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9668653485003101</v>
+        <v>0.9674814711551571</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>332</v>
@@ -8715,19 +8715,19 @@
         <v>351922</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>340763</v>
+        <v>341870</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>360315</v>
+        <v>360611</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9358034714193456</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9061293207120723</v>
+        <v>0.9090729275143326</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9581219365524883</v>
+        <v>0.9589093241241612</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>640</v>
@@ -8736,19 +8736,19 @@
         <v>667759</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>651999</v>
+        <v>653320</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>679059</v>
+        <v>680502</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9399835981374858</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9177985177420801</v>
+        <v>0.919659173332905</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9558904117239604</v>
+        <v>0.9579222777418425</v>
       </c>
     </row>
     <row r="33">
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6736</v>
+        <v>7305</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003035344729071858</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01688542438953515</v>
+        <v>0.01831282387158228</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6103</v>
+        <v>6917</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.00184601347274129</v>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009304404300755827</v>
+        <v>0.01054599502850419</v>
       </c>
     </row>
     <row r="35">
@@ -8903,19 +8903,19 @@
         <v>4641</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10092</v>
+        <v>10100</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01805776706440594</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.006058969761905267</v>
+        <v>0.006023410478592183</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03926829893109194</v>
+        <v>0.03929819692522529</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -8924,19 +8924,19 @@
         <v>9680</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3775</v>
+        <v>3594</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20164</v>
+        <v>20228</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02426697337677949</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009464574435095458</v>
+        <v>0.009010931030079061</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05055002865491351</v>
+        <v>0.05071044265610584</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -8945,19 +8945,19 @@
         <v>14321</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7256</v>
+        <v>7282</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>26193</v>
+        <v>26301</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02183403616421812</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01106275977160782</v>
+        <v>0.01110246597960184</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03993444732392247</v>
+        <v>0.04009891695602316</v>
       </c>
     </row>
     <row r="36">
@@ -8974,19 +8974,19 @@
         <v>6547</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3207</v>
+        <v>2523</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13252</v>
+        <v>11894</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02547590818956493</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01247685653223086</v>
+        <v>0.009818766107398276</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05156277864614871</v>
+        <v>0.04627929027676832</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8679</v>
+        <v>9044</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.006415855234298901</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02175822869426587</v>
+        <v>0.0226726456069286</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -9016,19 +9016,19 @@
         <v>9107</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4770</v>
+        <v>4803</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17271</v>
+        <v>16742</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01388410637226612</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00727267033074159</v>
+        <v>0.007322310345353559</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02633173225503949</v>
+        <v>0.02552540451033428</v>
       </c>
     </row>
     <row r="37">
@@ -9045,19 +9045,19 @@
         <v>245810</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>238025</v>
+        <v>239002</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>250980</v>
+        <v>250771</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9564663247460291</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9261757787854709</v>
+        <v>0.9299766870090487</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9765832069760296</v>
+        <v>0.975771769890551</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>291</v>
@@ -9066,19 +9066,19 @@
         <v>385448</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>374577</v>
+        <v>374111</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>392751</v>
+        <v>392336</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9662818266598497</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9390283783084449</v>
+        <v>0.9378618840120778</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9845902650532584</v>
+        <v>0.9835504338685972</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>580</v>
@@ -9087,19 +9087,19 @@
         <v>631258</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>616655</v>
+        <v>618708</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>639816</v>
+        <v>640655</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9624358439907744</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9401721737904432</v>
+        <v>0.9433017130091937</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9754836924762704</v>
+        <v>0.9767628482615474</v>
       </c>
     </row>
     <row r="38">
@@ -9191,19 +9191,19 @@
         <v>6767</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2355</v>
+        <v>2444</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>15549</v>
+        <v>16815</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001996612670066702</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0006948723279783371</v>
+        <v>0.0007210143221238718</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.004587589812335854</v>
+        <v>0.004960928970932939</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>3</v>
@@ -9212,19 +9212,19 @@
         <v>3144</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9302</v>
+        <v>9591</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.000888577175965079</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.000239454274910001</v>
+        <v>0.0002404616721481113</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.002628525092160147</v>
+        <v>0.002710243421809143</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>8</v>
@@ -9233,19 +9233,19 @@
         <v>9912</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4845</v>
+        <v>4671</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>20233</v>
+        <v>19592</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001430656041243952</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0006992570683288394</v>
+        <v>0.0006742385498783047</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.002920396423864796</v>
+        <v>0.0028278894863282</v>
       </c>
     </row>
     <row r="40">
@@ -9262,19 +9262,19 @@
         <v>122231</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>101319</v>
+        <v>101144</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>146020</v>
+        <v>145541</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03606232322410104</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02989264323815752</v>
+        <v>0.02984100335406962</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04308100038530849</v>
+        <v>0.04293953625114672</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>139</v>
@@ -9283,19 +9283,19 @@
         <v>152981</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>127432</v>
+        <v>129388</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>178728</v>
+        <v>179622</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04323031029493361</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03601069197257735</v>
+        <v>0.03656328593503212</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05050615515471463</v>
+        <v>0.05075870088730332</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>251</v>
@@ -9304,19 +9304,19 @@
         <v>275212</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>238717</v>
+        <v>242583</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>307176</v>
+        <v>309386</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03972355052200689</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03445598614229694</v>
+        <v>0.03501396697984251</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0443372628375519</v>
+        <v>0.04465625449228621</v>
       </c>
     </row>
     <row r="41">
@@ -9333,19 +9333,19 @@
         <v>156345</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04612722458709606</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>113</v>
@@ -9354,19 +9354,19 @@
         <v>121185</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03424518408138488</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>256</v>
@@ -9375,19 +9375,19 @@
         <v>277530</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04005817749975527</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
     </row>
     <row r="42">
@@ -9404,19 +9404,19 @@
         <v>3104093</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3068952</v>
+        <v>3068792</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3136625</v>
+        <v>3136233</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9158138395187362</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9054459620704957</v>
+        <v>0.9053986537501236</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.925411889386703</v>
+        <v>0.9252962802810643</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3078</v>
@@ -9425,19 +9425,19 @@
         <v>3261427</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3227087</v>
+        <v>3224535</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3292964</v>
+        <v>3293005</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9216359284477165</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9119318962150401</v>
+        <v>0.9112107503439639</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9305479586439583</v>
+        <v>0.9305595370775144</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6045</v>
@@ -9446,19 +9446,19 @@
         <v>6365521</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6313429</v>
+        <v>6318364</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6413567</v>
+        <v>6411451</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9187876159369939</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9112686999325161</v>
+        <v>0.9119809692344395</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9257224620478905</v>
+        <v>0.9254169730859613</v>
       </c>
     </row>
     <row r="43">
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9349</v>
+        <v>9372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004468081732211119</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0229259689438832</v>
+        <v>0.02298313532196238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10019</v>
+        <v>9279</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002365365205717926</v>
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01300616245155816</v>
+        <v>0.01204643694874246</v>
       </c>
     </row>
     <row r="5">
@@ -9856,19 +9856,19 @@
         <v>29659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15068</v>
+        <v>15897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50581</v>
+        <v>51725</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07273111197915549</v>
+        <v>0.07273111197915551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03694901525182161</v>
+        <v>0.03898385544672698</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1240357783834407</v>
+        <v>0.1268412958932232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -9877,19 +9877,19 @@
         <v>26750</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14453</v>
+        <v>15047</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42241</v>
+        <v>44161</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07379005157755567</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03986814194968908</v>
+        <v>0.0415070415636033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1165239033708646</v>
+        <v>0.1218207510244641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -9898,19 +9898,19 @@
         <v>56409</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36181</v>
+        <v>38304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82936</v>
+        <v>82354</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07322945778560346</v>
+        <v>0.07322945778560344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04696999747598476</v>
+        <v>0.04972551077483481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1076662976914025</v>
+        <v>0.1069108347665213</v>
       </c>
     </row>
     <row r="6">
@@ -9927,19 +9927,19 @@
         <v>14871</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5195</v>
+        <v>5394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30540</v>
+        <v>32277</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03646608801604105</v>
+        <v>0.03646608801604106</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01273959063068727</v>
+        <v>0.01322635393978776</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07488972722234442</v>
+        <v>0.07914951020067425</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12334</v>
+        <v>13337</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01039588973379572</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03402330441710504</v>
+        <v>0.03679069767377055</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -9969,19 +9969,19 @@
         <v>18639</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9184</v>
+        <v>8139</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37806</v>
+        <v>36014</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02419723528180429</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01192298506050626</v>
+        <v>0.01056609937629093</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04907885262145772</v>
+        <v>0.04675323985046844</v>
       </c>
     </row>
     <row r="7">
@@ -9998,19 +9998,19 @@
         <v>361441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>335660</v>
+        <v>335144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>380156</v>
+        <v>379994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8863347182725925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8231128387465183</v>
+        <v>0.8218495226854557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9322280432770074</v>
+        <v>0.9318296082587681</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>191</v>
@@ -10019,19 +10019,19 @@
         <v>331994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>316251</v>
+        <v>313914</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>345127</v>
+        <v>344601</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9158140586886486</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8723888977443792</v>
+        <v>0.8659401498283444</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9520416212779121</v>
+        <v>0.9505908721895479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>345</v>
@@ -10040,19 +10040,19 @@
         <v>693435</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>665394</v>
+        <v>663924</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>717195</v>
+        <v>715572</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9002079417268746</v>
+        <v>0.9002079417268742</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.863805993422979</v>
+        <v>0.8618978350018518</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9310531020242495</v>
+        <v>0.928946180636239</v>
       </c>
     </row>
     <row r="8">
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7666</v>
+        <v>6621</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002667003499815223</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01531071201533426</v>
+        <v>0.013223650509291</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6792</v>
+        <v>6671</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001365935389580622</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00694742891088602</v>
+        <v>0.006823861079545386</v>
       </c>
     </row>
     <row r="10">
@@ -10207,19 +10207,19 @@
         <v>26756</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15362</v>
+        <v>14942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43397</v>
+        <v>41824</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05610480899822521</v>
+        <v>0.05610480899822522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0322122880932095</v>
+        <v>0.03133171750971425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09099935443451508</v>
+        <v>0.08770178728493894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -10228,19 +10228,19 @@
         <v>65366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52554</v>
+        <v>50960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83279</v>
+        <v>83411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.130557867653155</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1049684240895535</v>
+        <v>0.1017845906514699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1663373474861306</v>
+        <v>0.1666001715753547</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -10249,19 +10249,19 @@
         <v>92122</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75114</v>
+        <v>74131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115629</v>
+        <v>115734</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09423676783755044</v>
+        <v>0.09423676783755042</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07683893550015679</v>
+        <v>0.07583327638754626</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1182834827117925</v>
+        <v>0.1183909050037224</v>
       </c>
     </row>
     <row r="11">
@@ -10278,19 +10278,19 @@
         <v>16167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7584</v>
+        <v>7113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28829</v>
+        <v>29044</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03390086463471752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0159030163368112</v>
+        <v>0.01491493607985384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06045256597223218</v>
+        <v>0.06090364679415138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -10299,19 +10299,19 @@
         <v>8695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4080</v>
+        <v>3693</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17533</v>
+        <v>17994</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.01736612632778112</v>
+        <v>0.01736612632778111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008149928717236387</v>
+        <v>0.007375205631509775</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03501848856947841</v>
+        <v>0.03594024073930431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -10320,19 +10320,19 @@
         <v>24862</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14003</v>
+        <v>14351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39758</v>
+        <v>41522</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.0254324152260596</v>
+        <v>0.02543241522605961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0143246591207779</v>
+        <v>0.01468007892215486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04067104440410682</v>
+        <v>0.04247513518807525</v>
       </c>
     </row>
     <row r="12">
@@ -10349,19 +10349,19 @@
         <v>433967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>415780</v>
+        <v>415390</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>449097</v>
+        <v>449671</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9099943263670572</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.871856905544134</v>
+        <v>0.8710385517897521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9417203800874717</v>
+        <v>0.9429236312549693</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>391</v>
@@ -10370,19 +10370,19 @@
         <v>425270</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>406771</v>
+        <v>408109</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>439361</v>
+        <v>440757</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8494090025192487</v>
+        <v>0.8494090025192486</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8124603980127209</v>
+        <v>0.815132562554757</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8775531623298399</v>
+        <v>0.8803414342157527</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>668</v>
@@ -10391,19 +10391,19 @@
         <v>859238</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>834616</v>
+        <v>830573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>879388</v>
+        <v>879038</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8789648815468093</v>
+        <v>0.8789648815468094</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.853777112580554</v>
+        <v>0.8496418261837589</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8995773355805862</v>
+        <v>0.8992190427295438</v>
       </c>
     </row>
     <row r="13">
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3874</v>
+        <v>4433</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001253035341459512</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006216970984961743</v>
+        <v>0.007113335808824985</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -10532,16 +10532,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4336</v>
+        <v>4935</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0006277041006734385</v>
+        <v>0.0006277041006734384</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003485442139893288</v>
+        <v>0.003967123178483645</v>
       </c>
     </row>
     <row r="15">
@@ -10558,19 +10558,19 @@
         <v>76503</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>58653</v>
+        <v>60820</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>94606</v>
+        <v>98017</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1232260862477908</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0944744962446394</v>
+        <v>0.0979644877195497</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1523846184690742</v>
+        <v>0.1578782531999087</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>94</v>
@@ -10579,19 +10579,19 @@
         <v>66999</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>55684</v>
+        <v>53928</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>80289</v>
+        <v>81688</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1075090059528071</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08935280632621981</v>
+        <v>0.08653523442818721</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1288346548928844</v>
+        <v>0.1310800351764273</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>157</v>
@@ -10600,19 +10600,19 @@
         <v>143502</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>122713</v>
+        <v>124494</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>166590</v>
+        <v>168216</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1153526644652227</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09864148219422138</v>
+        <v>0.1000729923562876</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1339118067097214</v>
+        <v>0.1352186573611967</v>
       </c>
     </row>
     <row r="16">
@@ -10629,19 +10629,19 @@
         <v>20808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12658</v>
+        <v>12748</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32604</v>
+        <v>33556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03351651412559398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02038881152585032</v>
+        <v>0.02053315755411383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05251660073639761</v>
+        <v>0.05405041342511811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -10650,19 +10650,19 @@
         <v>19718</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13930</v>
+        <v>13048</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29010</v>
+        <v>27646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03163949374795584</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02235251642009761</v>
+        <v>0.02093705814081408</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04655070038043863</v>
+        <v>0.04436202925768445</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -10671,19 +10671,19 @@
         <v>40526</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28941</v>
+        <v>29553</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52624</v>
+        <v>53025</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03257622668987113</v>
+        <v>0.03257622668987112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02326393017573039</v>
+        <v>0.02375553825137431</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04230138649546134</v>
+        <v>0.04262356531029671</v>
       </c>
     </row>
     <row r="17">
@@ -10700,19 +10700,19 @@
         <v>523525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>503725</v>
+        <v>501062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>542307</v>
+        <v>541705</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8432573996266153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8113639045966858</v>
+        <v>0.8070749846450913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8735093701604171</v>
+        <v>0.8725391974919136</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>726</v>
@@ -10721,19 +10721,19 @@
         <v>535696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>520027</v>
+        <v>519432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>548459</v>
+        <v>550503</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8595984649577774</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8344562492950849</v>
+        <v>0.8335011724649537</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.880079223496894</v>
+        <v>0.8833590494971756</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1191</v>
@@ -10742,19 +10742,19 @@
         <v>1059220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1033671</v>
+        <v>1032369</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1081748</v>
+        <v>1081602</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8514434047442329</v>
+        <v>0.8514434047442326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8309059242532855</v>
+        <v>0.8298591228509056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8695520306103652</v>
+        <v>0.8694346584454158</v>
       </c>
     </row>
     <row r="18">
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6803</v>
+        <v>5748</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001632193629418891</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009710687360351177</v>
+        <v>0.008204590188350415</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -10870,16 +10870,16 @@
         <v>441</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5570</v>
+        <v>5340</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002590140692893347</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0005984696114956829</v>
+        <v>0.0005990272601880033</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007558679877556282</v>
+        <v>0.007246062107674489</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -10888,19 +10888,19 @@
         <v>3052</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8394</v>
+        <v>8587</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002123251997078521</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0005308531152028161</v>
+        <v>0.0005325788179913043</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005839132583775732</v>
+        <v>0.005973525436049256</v>
       </c>
     </row>
     <row r="20">
@@ -10917,19 +10917,19 @@
         <v>92648</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74224</v>
+        <v>74328</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111945</v>
+        <v>112391</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1322371826830543</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1059415063327573</v>
+        <v>0.1060890728139359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.159780920279297</v>
+        <v>0.1604176728625654</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>151</v>
@@ -10938,19 +10938,19 @@
         <v>100059</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85317</v>
+        <v>85854</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115734</v>
+        <v>116328</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1357857143291057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1157801102588197</v>
+        <v>0.1165089930643872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1570588407316346</v>
+        <v>0.1578637229051635</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>237</v>
@@ -10959,19 +10959,19 @@
         <v>192706</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>170804</v>
+        <v>170278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>219108</v>
+        <v>216789</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1340562144689845</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1188196721761151</v>
+        <v>0.1184542180602616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1524223558794735</v>
+        <v>0.1508091680517954</v>
       </c>
     </row>
     <row r="21">
@@ -10988,19 +10988,19 @@
         <v>27580</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16600</v>
+        <v>18155</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40030</v>
+        <v>39814</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03936526192128473</v>
+        <v>0.03936526192128472</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02369380890975727</v>
+        <v>0.02591251679209717</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05713548165090492</v>
+        <v>0.05682776493190172</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>35</v>
@@ -11009,19 +11009,19 @@
         <v>22751</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15979</v>
+        <v>16144</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31359</v>
+        <v>31215</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03087400905134509</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02168495887072052</v>
+        <v>0.02190869739442082</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04255644729241106</v>
+        <v>0.04236112294760311</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>60</v>
@@ -11030,19 +11030,19 @@
         <v>50331</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38724</v>
+        <v>37702</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>64748</v>
+        <v>65403</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03501251537329252</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02693808672693795</v>
+        <v>0.02622765835864612</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04504192862810678</v>
+        <v>0.04549756450641179</v>
       </c>
     </row>
     <row r="22">
@@ -11059,19 +11059,19 @@
         <v>579246</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>557764</v>
+        <v>558126</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>600019</v>
+        <v>598296</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8267653617662423</v>
+        <v>0.8267653617662419</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.796103397772715</v>
+        <v>0.7966203703405217</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8564155446326198</v>
+        <v>0.8539554522251734</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>952</v>
@@ -11080,19 +11080,19 @@
         <v>612168</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>595006</v>
+        <v>593127</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>628645</v>
+        <v>626954</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8307501359266558</v>
+        <v>0.830750135926656</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8074594053609215</v>
+        <v>0.8049095738771682</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8531102968285531</v>
+        <v>0.8508152091116421</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1505</v>
@@ -11101,19 +11101,19 @@
         <v>1191415</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1164922</v>
+        <v>1163852</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1217077</v>
+        <v>1216158</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8288080181606443</v>
+        <v>0.8288080181606444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8103782990832138</v>
+        <v>0.8096339287478947</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8466597961741801</v>
+        <v>0.8460204734277134</v>
       </c>
     </row>
     <row r="23">
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4502</v>
+        <v>4521</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001475169767823988</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.007388184841946028</v>
+        <v>0.007419212652259155</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4495</v>
+        <v>4252</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002340941782420627</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.007391041810160068</v>
+        <v>0.00699121875658235</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -11247,19 +11247,19 @@
         <v>2322</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6518</v>
+        <v>6240</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001907624207773501</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0005805061568423827</v>
+        <v>0.0005795817404915586</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005353597308474377</v>
+        <v>0.005125141165519087</v>
       </c>
     </row>
     <row r="25">
@@ -11276,19 +11276,19 @@
         <v>67031</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53513</v>
+        <v>53281</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83472</v>
+        <v>82187</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.110004853340707</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08781981166810056</v>
+        <v>0.08743979375213287</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1369859292858924</v>
+        <v>0.1348767718362653</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>118</v>
@@ -11297,19 +11297,19 @@
         <v>74071</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62473</v>
+        <v>61872</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89448</v>
+        <v>87438</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1218010461629397</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1027285943347157</v>
+        <v>0.1017416700897734</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1470866396137778</v>
+        <v>0.1437802992682043</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>188</v>
@@ -11318,19 +11318,19 @@
         <v>141102</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>123749</v>
+        <v>121785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>163664</v>
+        <v>161237</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.115897069622209</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1016434351000404</v>
+        <v>0.1000301468189594</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1344284537630808</v>
+        <v>0.1324349394677427</v>
       </c>
     </row>
     <row r="26">
@@ -11347,19 +11347,19 @@
         <v>18752</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11834</v>
+        <v>12474</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29105</v>
+        <v>27905</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03077410649634818</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0194212068768684</v>
+        <v>0.02047055725717411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04776420966870584</v>
+        <v>0.04579434038705484</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -11368,19 +11368,19 @@
         <v>19304</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13418</v>
+        <v>13716</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26886</v>
+        <v>27406</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03174331889866062</v>
+        <v>0.03174331889866063</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02206412138706685</v>
+        <v>0.02255394145869135</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04421087405642105</v>
+        <v>0.04506603452200929</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>53</v>
@@ -11389,19 +11389,19 @@
         <v>38056</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28760</v>
+        <v>29415</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>50101</v>
+        <v>50069</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03125822956751194</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02362257273567807</v>
+        <v>0.02416087175871227</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04115144402314144</v>
+        <v>0.04112481781524018</v>
       </c>
     </row>
     <row r="27">
@@ -11418,19 +11418,19 @@
         <v>522664</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>504431</v>
+        <v>506237</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>538114</v>
+        <v>539256</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8577458703951206</v>
+        <v>0.8577458703951208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8278229693260455</v>
+        <v>0.8307877015333943</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8831014434522557</v>
+        <v>0.8849743580406029</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>849</v>
@@ -11439,19 +11439,19 @@
         <v>513334</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>497248</v>
+        <v>499467</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>526346</v>
+        <v>526997</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8441146931559789</v>
+        <v>0.8441146931559793</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8176639871952814</v>
+        <v>0.8213120330081833</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8655108374047168</v>
+        <v>0.8665818188437592</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1420</v>
@@ -11460,19 +11460,19 @@
         <v>1035998</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1012529</v>
+        <v>1013926</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1055603</v>
+        <v>1056807</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8509370766025056</v>
+        <v>0.8509370766025057</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8316606895757522</v>
+        <v>0.8328077935018008</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.867040403080964</v>
+        <v>0.8680287178666857</v>
       </c>
     </row>
     <row r="28">
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5931</v>
+        <v>6110</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.002586629621033325</v>
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01457044190752894</v>
+        <v>0.01500831269076099</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5668</v>
+        <v>6814</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001244277183348482</v>
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.006697940670675264</v>
+        <v>0.008051646808036031</v>
       </c>
     </row>
     <row r="30">
@@ -11627,19 +11627,19 @@
         <v>38123</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28476</v>
+        <v>30031</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49347</v>
+        <v>50140</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09365007163822994</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06995151256142984</v>
+        <v>0.07377125412622422</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1212221055485907</v>
+        <v>0.1231705358025708</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -11648,19 +11648,19 @@
         <v>35546</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28142</v>
+        <v>26848</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>44274</v>
+        <v>44636</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.08093943110852328</v>
+        <v>0.08093943110852329</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06407974391852875</v>
+        <v>0.06113505239216373</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1008137199918462</v>
+        <v>0.1016375806844977</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>114</v>
@@ -11669,19 +11669,19 @@
         <v>73669</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>62269</v>
+        <v>61202</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>86438</v>
+        <v>88166</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08705378156219988</v>
+        <v>0.08705378156219989</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07358203536010331</v>
+        <v>0.07232138159926702</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1021430805940248</v>
+        <v>0.1041851155967736</v>
       </c>
     </row>
     <row r="31">
@@ -11698,19 +11698,19 @@
         <v>20065</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13908</v>
+        <v>13793</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28087</v>
+        <v>28436</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.04928982629760151</v>
+        <v>0.04928982629760152</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03416537291275254</v>
+        <v>0.0338823212638635</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06899540237071652</v>
+        <v>0.06985291560595211</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>34</v>
@@ -11719,19 +11719,19 @@
         <v>17815</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12325</v>
+        <v>12970</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24894</v>
+        <v>24690</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.04056471205160798</v>
+        <v>0.04056471205160797</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02806462965718709</v>
+        <v>0.02953297205526852</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0566847167577595</v>
+        <v>0.05622044394441928</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>62</v>
@@ -11740,19 +11740,19 @@
         <v>37880</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>29527</v>
+        <v>29336</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48360</v>
+        <v>48345</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0447618574372939</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03489177824523346</v>
+        <v>0.03466625914673081</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05714671973767378</v>
+        <v>0.05712860706444983</v>
       </c>
     </row>
     <row r="32">
@@ -11769,19 +11769,19 @@
         <v>347839</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>334719</v>
+        <v>334599</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>359464</v>
+        <v>359072</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8544734724431353</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8222447572557677</v>
+        <v>0.8219495663189245</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8830296328243066</v>
+        <v>0.8820671556842439</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>729</v>
@@ -11790,19 +11790,19 @@
         <v>385806</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>374738</v>
+        <v>375210</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>394861</v>
+        <v>395336</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8784958568398687</v>
+        <v>0.8784958568398686</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8532955980406015</v>
+        <v>0.8543701738911671</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8991156958976123</v>
+        <v>0.900196327717857</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1220</v>
@@ -11811,19 +11811,19 @@
         <v>733645</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>717225</v>
+        <v>718187</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>748277</v>
+        <v>749799</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8669400838171575</v>
+        <v>0.8669400838171576</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8475374020924638</v>
+        <v>0.8486736529552948</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8842313343130561</v>
+        <v>0.8860299510962628</v>
       </c>
     </row>
     <row r="33">
@@ -11931,16 +11931,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4241</v>
+        <v>4246</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.002607348216882508</v>
+        <v>0.002607348216882507</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.009127851282937003</v>
+        <v>0.009139218694931998</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4134</v>
+        <v>4220</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001563482069067401</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005335782635499219</v>
+        <v>0.005446541360940676</v>
       </c>
     </row>
     <row r="35">
@@ -11978,19 +11978,19 @@
         <v>15738</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10283</v>
+        <v>9435</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>22905</v>
+        <v>22374</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05073603896996859</v>
+        <v>0.0507360389699686</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03314889348046225</v>
+        <v>0.03041509547912852</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07384086059211667</v>
+        <v>0.07212963269080833</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>39</v>
@@ -11999,19 +11999,19 @@
         <v>21716</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16082</v>
+        <v>15893</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>29017</v>
+        <v>28395</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04674125822058713</v>
+        <v>0.04674125822058712</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03461354372388817</v>
+        <v>0.03420685263509188</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06245378144552698</v>
+        <v>0.06111677458016681</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>63</v>
@@ -12020,19 +12020,19 @@
         <v>37455</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>28525</v>
+        <v>28266</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>48015</v>
+        <v>47157</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04834059058640695</v>
+        <v>0.04834059058640694</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03681554863609336</v>
+        <v>0.03648109603210468</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06197041440679563</v>
+        <v>0.06086295537966722</v>
       </c>
     </row>
     <row r="36">
@@ -12049,19 +12049,19 @@
         <v>11408</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6827</v>
+        <v>7079</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18385</v>
+        <v>18624</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03677791251946805</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0220089342105505</v>
+        <v>0.02281990700798062</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05926858265253584</v>
+        <v>0.06003845266744653</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -12070,19 +12070,19 @@
         <v>11270</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6805</v>
+        <v>7229</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>17004</v>
+        <v>17872</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.02425671003460793</v>
+        <v>0.02425671003460792</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01464643428269976</v>
+        <v>0.01555899698626092</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0365990424165178</v>
+        <v>0.03846589370020326</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>37</v>
@@ -12091,19 +12091,19 @@
         <v>22678</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16137</v>
+        <v>16065</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>31636</v>
+        <v>31897</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02926964207001962</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02082704051889289</v>
+        <v>0.02073449869237693</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04083060551375717</v>
+        <v>0.04116815811660921</v>
       </c>
     </row>
     <row r="37">
@@ -12120,19 +12120,19 @@
         <v>283051</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>273861</v>
+        <v>275016</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>289972</v>
+        <v>291565</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9124860485105633</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8828588068175427</v>
+        <v>0.8865834990140969</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9347975768378878</v>
+        <v>0.9399316458944966</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>821</v>
@@ -12141,19 +12141,19 @@
         <v>430411</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>422122</v>
+        <v>421493</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>438547</v>
+        <v>438249</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9263946835279224</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9085523356590004</v>
+        <v>0.9071999914504761</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9439049901409367</v>
+        <v>0.9432635741359949</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1237</v>
@@ -12162,19 +12162,19 @@
         <v>713463</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>700335</v>
+        <v>701348</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>725162</v>
+        <v>724128</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9208262852745061</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.903883090424939</v>
+        <v>0.9051906909516301</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9359255762823518</v>
+        <v>0.9345919616286158</v>
       </c>
     </row>
     <row r="38">
@@ -12266,19 +12266,19 @@
         <v>4917</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>11487</v>
+        <v>12962</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001391956367994032</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0003284461166997379</v>
+        <v>0.000325695169496238</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.003251560035397403</v>
+        <v>0.003668976090901624</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -12287,19 +12287,19 @@
         <v>6660</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3260</v>
+        <v>3003</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12981</v>
+        <v>12817</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001783000455262253</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0008729109337029065</v>
+        <v>0.0008038576167978983</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.003475399070888526</v>
+        <v>0.003431408622272224</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>13</v>
@@ -12308,19 +12308,19 @@
         <v>11577</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>6184</v>
+        <v>6044</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>21497</v>
+        <v>20770</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.001592923477362397</v>
+        <v>0.001592923477362398</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0008508683874120576</v>
+        <v>0.0008315601235331377</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.002957847634765635</v>
+        <v>0.00285775481517766</v>
       </c>
     </row>
     <row r="40">
@@ -12337,19 +12337,19 @@
         <v>346458</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>309617</v>
+        <v>306898</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>387119</v>
+        <v>390106</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09807011529444903</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08764159241437497</v>
+        <v>0.08687208256015291</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1095797820433328</v>
+        <v>0.1104252881558809</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>541</v>
@@ -12358,19 +12358,19 @@
         <v>390507</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>359096</v>
+        <v>361519</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>424372</v>
+        <v>427908</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1045486940563457</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09613915781541785</v>
+        <v>0.09678792426880536</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1136152795117236</v>
+        <v>0.1145618996630344</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>861</v>
@@ -12379,19 +12379,19 @@
         <v>736965</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>686290</v>
+        <v>687370</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>789554</v>
+        <v>793765</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1013996151871315</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09442724609569607</v>
+        <v>0.09457583715678379</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.108635376093873</v>
+        <v>0.1092147537039077</v>
       </c>
     </row>
     <row r="41">
@@ -12408,19 +12408,19 @@
         <v>129651</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03669970105723599</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>156</v>
@@ -12429,19 +12429,19 @@
         <v>103320</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0276614500664914</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>281</v>
@@ -12450,19 +12450,19 @@
         <v>232971</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03205472307522696</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="42">
@@ -12479,19 +12479,19 @@
         <v>3051735</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3006500</v>
+        <v>3002670</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3095597</v>
+        <v>3098750</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.863838227280321</v>
+        <v>0.8638382272803211</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8510338386567027</v>
+        <v>0.849949685457399</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8762541312426015</v>
+        <v>0.8771466398698373</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4659</v>
@@ -12500,19 +12500,19 @@
         <v>3234679</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3195679</v>
+        <v>3196838</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3266585</v>
+        <v>3269363</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8660068554219005</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8555653256016291</v>
+        <v>0.8558757860968524</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8745489093478472</v>
+        <v>0.8752924595034827</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7586</v>
@@ -12521,19 +12521,19 @@
         <v>6286414</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6225606</v>
+        <v>6220140</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6343953</v>
+        <v>6341118</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.8649527382602791</v>
+        <v>0.8649527382602792</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8565860539873991</v>
+        <v>0.8558340533942992</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8728695597132334</v>
+        <v>0.8724794735778953</v>
       </c>
     </row>
     <row r="43">
